--- a/Cuentas recaudadoras/31.10.2022/CUENTAS DE CAJA IVSA.xlsx
+++ b/Cuentas recaudadoras/31.10.2022/CUENTAS DE CAJA IVSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Traslado tesorería Bot/Cuentas recaudadoras/29.10.2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Traslado de tesoreria B5/Cuentas recaudadoras/31.10.2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AA1A3038017B923EE464A49649B12E3E0DB9658F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53FA8257-8E8F-46ED-A226-B3BA7861B825}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AA1A3038017B923EE464A49649B12E3E0DB9658F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B8637C8-7E25-436F-97F0-87C144BE779D}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="570" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>CAJAS RECAUDADORAS A NIVEL NACIONAL</t>
   </si>
@@ -59,204 +59,6 @@
   </si>
   <si>
     <t>CAJA GENERAL M/N - RECAUDADORA AG MURILLO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AG MAX PAREDES</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL DISALTO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AG.SATELITE</t>
-  </si>
-  <si>
-    <t>MCSC 6211</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL DISCRUZ</t>
-  </si>
-  <si>
-    <t>*CERRADA MOMENTANEAMENTE</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA ALEMANA</t>
-  </si>
-  <si>
-    <t>BISA 0049</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA MONTERO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA WARNES</t>
-  </si>
-  <si>
-    <t>MCSC 8183</t>
-  </si>
-  <si>
-    <t>ENVIO DE RECAUDACION L-M-V</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL DISTAR</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA TARIJEÑITA</t>
-  </si>
-  <si>
-    <t>MCSC 1329</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL COCHABAMBA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AG HONDURAS CBBA</t>
-  </si>
-  <si>
-    <t>BISA 0031</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AG CALAMA CBBA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL SUCRE</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA SUCRE 1</t>
-  </si>
-  <si>
-    <t>BISA 0065</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA SUCRE 2</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL POTOSI</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA POTOSI 1</t>
-  </si>
-  <si>
-    <t>BISA 0073</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL ORURO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA ORURO 1</t>
-  </si>
-  <si>
-    <t>BISA 0057</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL TRINIDAD</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA TRINIDAD 1</t>
-  </si>
-  <si>
-    <t>BISA 0090</t>
-  </si>
-  <si>
-    <t>DEPOSITO DIARIO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL PANDO</t>
-  </si>
-  <si>
-    <t>BISA 0111</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL RIBERALTA</t>
-  </si>
-  <si>
-    <t>BISA 0103</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISPAZ</t>
-  </si>
-  <si>
-    <t>ETV M.E</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AG ACHUMANI</t>
-  </si>
-  <si>
-    <t>BISA 2017</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AG MURILLO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AG MAX PAREDES</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISALTO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AG.SATELITE</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISCRUZ</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA ALEMANA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA MONTERO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA WARNES</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISTAR</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA TARIJEÑITA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL COCHABAMBA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AG HONDURAS CBBA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AG CALAMA CBBA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL SUCRE</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA SUCRE 1</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA SUCRE 2</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL POTOSI</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA POTOSI 1</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL ORURO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA ORURO 1</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL TRINIDAD</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA TRINIDAD 1</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL PANDO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL RIBERALTA</t>
   </si>
   <si>
     <t>*NOTA: 1) LAS AGENCIAS MUY RARA VEZ RECIBEN DOLARES, GENERALMENTE ELMOVIMIENTO DIARIO SOLAMENTE ES EN DISTRIBUIDORA</t>
@@ -275,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +119,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -639,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,6 +598,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,6 +614,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1102,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +930,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +941,7 @@
       </c>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1141,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54"/>
       <c r="B3" s="32" t="s">
         <v>6</v>
@@ -1152,7 +967,7 @@
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1169,7 +984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
@@ -1184,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -1199,792 +1014,375 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9">
-        <v>101010105</v>
-      </c>
-      <c r="D7" s="40">
-        <v>101044012</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="13">
-        <v>101010106</v>
-      </c>
-      <c r="D8" s="36">
-        <v>101020101</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9">
-        <v>101010133</v>
-      </c>
-      <c r="D9" s="42">
-        <v>101041012</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="13">
-        <v>101010107</v>
-      </c>
-      <c r="D10" s="36">
-        <v>101020101</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="19">
-        <v>101010108</v>
-      </c>
-      <c r="D11" s="44">
-        <v>101044032</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7">
-        <v>101010132</v>
-      </c>
-      <c r="D12" s="38">
-        <v>101044032</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
-      <c r="B13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7">
-        <v>101010134</v>
-      </c>
-      <c r="D13" s="40">
-        <v>101041082</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="13">
-        <v>101010109</v>
-      </c>
-      <c r="D14" s="36">
-        <v>101020101</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="G13" s="68"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="9">
-        <v>101010110</v>
-      </c>
-      <c r="D15" s="40">
-        <v>101041002</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="13">
-        <v>101010111</v>
-      </c>
-      <c r="D16" s="36">
-        <v>101020101</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7">
-        <v>101010112</v>
-      </c>
-      <c r="D17" s="46">
-        <v>101044022</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>30</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="9">
-        <v>101010113</v>
-      </c>
-      <c r="D18" s="42">
-        <v>101044022</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>30</v>
-      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="13">
-        <v>101010114</v>
-      </c>
-      <c r="D19" s="36">
-        <v>101020101</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7">
-        <v>101010115</v>
-      </c>
-      <c r="D20" s="46">
-        <v>101044052</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>34</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="9">
-        <v>101010116</v>
-      </c>
-      <c r="D21" s="42">
-        <v>101044052</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>34</v>
-      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="13">
-        <v>101010117</v>
-      </c>
-      <c r="D22" s="36">
-        <v>101020101</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>9</v>
-      </c>
+      <c r="A22" s="22"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
-      <c r="B23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="9">
-        <v>101010118</v>
-      </c>
-      <c r="D23" s="42">
-        <v>101044062</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>38</v>
-      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="13">
-        <v>101010119</v>
-      </c>
-      <c r="D24" s="36">
-        <v>101020101</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>9</v>
-      </c>
+      <c r="A24" s="24"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
-      <c r="B25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="9">
-        <v>101010120</v>
-      </c>
-      <c r="D25" s="42">
-        <v>101044042</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>41</v>
-      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="13">
-        <v>101010121</v>
-      </c>
-      <c r="D26" s="36">
-        <v>101020101</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>9</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="9">
-        <v>101010122</v>
-      </c>
-      <c r="D27" s="42">
-        <v>101044082</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>44</v>
-      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="27">
-        <v>101010136</v>
-      </c>
-      <c r="D28" s="40">
-        <v>101044102</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>47</v>
-      </c>
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="27">
-        <v>101010137</v>
-      </c>
-      <c r="D29" s="40">
-        <v>101044092</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>49</v>
-      </c>
+      <c r="A29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
-      <c r="B30" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="33">
-        <v>101010201</v>
-      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="13">
-        <v>101010202</v>
-      </c>
-      <c r="D31" s="36">
-        <v>101020201</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="50"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="7">
-        <v>101010203</v>
-      </c>
-      <c r="D32" s="61">
-        <v>101052002</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>54</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="59"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="7">
-        <v>101010204</v>
-      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="62"/>
       <c r="E33" s="64"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
-      <c r="B34" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="9">
-        <v>101010205</v>
-      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="63"/>
       <c r="E34" s="60"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="13">
-        <v>101010206</v>
-      </c>
-      <c r="D35" s="36">
-        <v>101020201</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
-      <c r="B36" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="9">
-        <v>101010233</v>
-      </c>
-      <c r="D36" s="51">
-        <v>101052002</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="13">
-        <v>101010207</v>
-      </c>
-      <c r="D37" s="36">
-        <v>101020201</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="50"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="19">
-        <v>101010208</v>
-      </c>
-      <c r="D38" s="65">
-        <v>101052002</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>54</v>
-      </c>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="59"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="7">
-        <v>101010232</v>
-      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="66"/>
       <c r="E39" s="64"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
-      <c r="B40" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="7">
-        <v>101010234</v>
-      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="67"/>
       <c r="E40" s="60"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="13">
-        <v>101010209</v>
-      </c>
-      <c r="D41" s="36">
-        <v>101020201</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
-      <c r="B42" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="9">
-        <v>101010210</v>
-      </c>
-      <c r="D42" s="51">
-        <v>101052002</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="13">
-        <v>101010211</v>
-      </c>
-      <c r="D43" s="36">
-        <v>101020201</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A43" s="21"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="7">
-        <v>101010212</v>
-      </c>
-      <c r="D44" s="61">
-        <v>101052002</v>
-      </c>
-      <c r="E44" s="59" t="s">
-        <v>54</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="59"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="9">
-        <v>101010213</v>
-      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="63"/>
       <c r="E45" s="60"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="13">
-        <v>101010214</v>
-      </c>
-      <c r="D46" s="36">
-        <v>101020201</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="7">
-        <v>101010215</v>
-      </c>
-      <c r="D47" s="61">
-        <v>101052002</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>54</v>
-      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
-      <c r="B48" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="9">
-        <v>101010216</v>
-      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="63"/>
       <c r="E48" s="60"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="13">
-        <v>101010217</v>
-      </c>
-      <c r="D49" s="36">
-        <v>101020201</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A49" s="22"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="50"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
-      <c r="B50" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="9">
-        <v>101010218</v>
-      </c>
-      <c r="D50" s="51">
-        <v>101052002</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="13">
-        <v>101010219</v>
-      </c>
-      <c r="D51" s="36">
-        <v>101020201</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A51" s="24"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="50"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
-      <c r="B52" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="9">
-        <v>101010220</v>
-      </c>
-      <c r="D52" s="51">
-        <v>101052002</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="13">
-        <v>101010221</v>
-      </c>
-      <c r="D53" s="36">
-        <v>101020201</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="50"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
-      <c r="B54" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="9">
-        <v>101010222</v>
-      </c>
-      <c r="D54" s="52">
-        <v>101052002</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="30">
-        <v>101010236</v>
-      </c>
-      <c r="D55" s="53">
-        <v>101052002</v>
-      </c>
-      <c r="E55" s="53" t="s">
-        <v>54</v>
-      </c>
+      <c r="A55" s="26"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="27">
-        <v>101010237</v>
-      </c>
-      <c r="D56" s="29">
-        <v>101052002</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="A56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2001,6 +1399,6 @@
     <mergeCell ref="D38:D40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.38" bottom="0.27" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>